--- a/Config/Sfx.xlsx
+++ b/Config/Sfx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23595A38-73E7-4D14-8E65-33F939DA8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285AA1A8-1A3E-4E78-9A4F-7698A757C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="5595" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0.5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +97,38 @@
   </si>
   <si>
     <t>IsOnlyOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.2,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosRandom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置随机偏移限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.1,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -436,10 +464,10 @@
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="7" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,16 +486,22 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -478,16 +512,22 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -495,27 +535,33 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>3301</v>
@@ -527,7 +573,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Sfx.xlsx
+++ b/Config/Sfx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285AA1A8-1A3E-4E78-9A4F-7698A757C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C0A62-2210-438B-B722-C923DF784A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-750" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -129,6 +129,34 @@
   </si>
   <si>
     <t>0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2,1.2,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowOwner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跟随持有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑生成光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.5,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="7" width="20" customWidth="1"/>
+    <col min="8" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,19 +517,22 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -518,16 +549,19 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -544,19 +578,22 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -570,16 +607,65 @@
         <v>400</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>3302</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>3303</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Sfx.xlsx
+++ b/Config/Sfx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C0A62-2210-438B-B722-C923DF784A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4806B92-4DDB-48A5-866E-9D28DD10BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-750" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="390" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5,0.5,0.5</t>
+    <t>0.3,0.3,0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
